--- a/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,89 +452,193 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45446</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45460</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45481</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45502</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45509</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45537</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45572</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45579</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45600</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45628</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45635</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -549,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,57 +675,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45444</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45627</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>28</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -669,7 +670,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -783,6 +784,495 @@
       </c>
       <c r="B15" t="n">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.244126452901308</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.64348337709132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.27583753776173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.16379785361621</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.439206241857242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.78134173193705</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.231999088465936</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.27024074505385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.935974279685398</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.16019196077499</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.954074941381386</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.65326961503357</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.014080279162995</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.46747338902212</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.890340310462669</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.66562955633862</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.194085217692627</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.67641288905774</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.280168822857489</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.79604676404794</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.419294311621086</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.23690086535925</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.230300399657876</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.09317282400822</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.843858059792619</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.02549685023471</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1762936203889576</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.27233252168687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1412401592257918</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.15931392279188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1471096151204619</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.3539271567659</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.06788119459529098</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.38674306684116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3529605281263645</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.33383400890116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02823756136752543</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.72576800201163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2510134498415148</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13.59747154623267</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1480552519907759</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13.52638327431611</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4088478424299544</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.55373399141487</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7777151362574042</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.99904849360332</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5288511219649641</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.1298540070506</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4232970835806115</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.13505892190405</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5696060575014007</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.79968286714684</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4228093648581563</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.24286903027701</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8048087318437704</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.46857923471271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6550632590532101</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13.86668765351263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.800932259643614</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.18364027134656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8016835935513933</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14.21286510297092</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.125157305484516</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.02313845064417</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
@@ -797,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,16 +816,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -834,12 +824,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-2.244126452901308</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.64348337709132</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -848,12 +832,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-2.27583753776173</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.16379785361621</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -862,12 +840,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-2.439206241857242</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.78134173193705</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -876,12 +848,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-2.231999088465936</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.27024074505385</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -890,12 +856,6 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.935974279685398</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.16019196077499</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -904,12 +864,6 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.954074941381386</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.65326961503357</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -918,12 +872,6 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.014080279162995</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.46747338902212</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -932,12 +880,6 @@
       <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.890340310462669</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.66562955633862</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -946,12 +888,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1.194085217692627</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.67641288905774</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -960,12 +896,6 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1.280168822857489</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.79604676404794</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -974,12 +904,6 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.419294311621086</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.23690086535925</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -988,12 +912,6 @@
       <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.230300399657876</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.09317282400822</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1002,12 +920,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.843858059792619</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.02549685023471</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1016,12 +928,6 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.1762936203889576</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.27233252168687</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1030,12 +936,6 @@
       <c r="B16" t="n">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.1412401592257918</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.15931392279188</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1044,12 +944,6 @@
       <c r="B17" t="n">
         <v>7</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.1471096151204619</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.3539271567659</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1058,12 +952,6 @@
       <c r="B18" t="n">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.06788119459529098</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13.38674306684116</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1072,12 +960,6 @@
       <c r="B19" t="n">
         <v>7</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.3529605281263645</v>
-      </c>
-      <c r="D19" t="n">
-        <v>13.33383400890116</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1086,12 +968,6 @@
       <c r="B20" t="n">
         <v>7</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.02823756136752543</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13.72576800201163</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1100,12 +976,6 @@
       <c r="B21" t="n">
         <v>7</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.2510134498415148</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.59747154623267</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1114,12 +984,6 @@
       <c r="B22" t="n">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.1480552519907759</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13.52638327431611</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1128,12 +992,6 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.4088478424299544</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13.55373399141487</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1142,12 +1000,6 @@
       <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.7777151362574042</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.99904849360332</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1156,12 +1008,6 @@
       <c r="B25" t="n">
         <v>7</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.5288511219649641</v>
-      </c>
-      <c r="D25" t="n">
-        <v>14.1298540070506</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1170,12 +1016,6 @@
       <c r="B26" t="n">
         <v>7</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.4232970835806115</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14.13505892190405</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1184,12 +1024,6 @@
       <c r="B27" t="n">
         <v>7</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.5696060575014007</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13.79968286714684</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1198,12 +1032,6 @@
       <c r="B28" t="n">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.4228093648581563</v>
-      </c>
-      <c r="D28" t="n">
-        <v>14.24286903027701</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1212,12 +1040,6 @@
       <c r="B29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.8048087318437704</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14.46857923471271</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1226,12 +1048,6 @@
       <c r="B30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.6550632590532101</v>
-      </c>
-      <c r="D30" t="n">
-        <v>13.86668765351263</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1240,12 +1056,6 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.800932259643614</v>
-      </c>
-      <c r="D31" t="n">
-        <v>14.18364027134656</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1254,12 +1064,6 @@
       <c r="B32" t="n">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.8016835935513933</v>
-      </c>
-      <c r="D32" t="n">
-        <v>14.21286510297092</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1267,12 +1071,6 @@
       </c>
       <c r="B33" t="n">
         <v>8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.125157305484516</v>
-      </c>
-      <c r="D33" t="n">
-        <v>14.02313845064417</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRF9XKS_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -654,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,6 +802,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -797,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,7 +846,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -830,7 +854,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +862,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,7 +870,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +966,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -950,7 +974,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -958,7 +982,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -966,7 +990,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -974,7 +998,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +1006,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -990,7 +1014,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -998,7 +1022,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1006,20 +1030,20 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>7</v>
@@ -1027,7 +1051,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>7</v>
@@ -1035,7 +1059,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7</v>
@@ -1043,7 +1067,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>7</v>
@@ -1051,7 +1075,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>7</v>
@@ -1059,7 +1083,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>7</v>
@@ -1067,10 +1091,26 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
